--- a/writable/berkas/Format-Import-Karyawan.xlsx
+++ b/writable/berkas/Format-Import-Karyawan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afhamz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\web2025\writable\berkas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D851C499-39B0-43E8-8131-1CC104ED427A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D73A2B-0FC3-4F46-8AD2-DF3DF06E692D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="9576" windowWidth="26952" windowHeight="15624" tabRatio="359" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21528" yWindow="7344" windowWidth="20856" windowHeight="10896" tabRatio="359" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ImportData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <r>
       <t>ID
@@ -549,6 +549,78 @@
   </si>
   <si>
     <t>TABEL: DEPARTMENTS</t>
+  </si>
+  <si>
+    <r>
+      <t>Sandi
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>user123</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <r>
+      <t>Hak Akses
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>role</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>HAK AKSES</t>
   </si>
 </sst>
 </file>
@@ -711,7 +783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,8 +826,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,23 +1152,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="16.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="4" customWidth="1"/>
-    <col min="7" max="11" width="16.77734375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="0" style="9" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="44.44140625" style="9" hidden="1"/>
+    <col min="1" max="1" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="44.44140625" style="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1101,28 +1192,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>210</v>
       </c>
@@ -1135,26 +1232,32 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10">
         <v>123456789</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
         <v>36982</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4500</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.25</v>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J2" s="1">
-        <v>146</v>
-      </c>
-      <c r="K2" s="1">
-        <v>80</v>
+        <v>2500</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>200</v>
+      </c>
+      <c r="M2" s="1">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1166,24 +1269,30 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60389E7D-97B3-4A30-A731-4880E7C46DB3}">
           <x14:formula1>
             <xm:f>DataReferences!$B$3:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
+          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C6BA16A6-583B-4EB4-8DEC-46792A262F93}">
           <x14:formula1>
             <xm:f>DataReferences!$F$3:$F$27</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1048576</xm:sqref>
+          <xm:sqref>M2:M1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{714BB2A0-3858-407E-BA36-1109E05EFC26}">
           <x14:formula1>
             <xm:f>DataReferences!$H$3:$H$27</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J1048576</xm:sqref>
+          <xm:sqref>L2:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5CA60B5B-E989-4B62-94FB-39F2250425C2}">
+          <x14:formula1>
+            <xm:f>DataReferences!$K$3:$K$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1193,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067BF70-A10E-4E22-AD50-9674040282EC}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1209,23 +1318,29 @@
     <col min="7" max="7" width="18.77734375" style="13" customWidth="1"/>
     <col min="8" max="9" width="12.77734375" style="13" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="13"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="K1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
@@ -1250,8 +1365,14 @@
       <c r="I2" s="15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
@@ -1276,8 +1397,14 @@
       <c r="I3" s="14">
         <v>1700</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="14">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -1302,8 +1429,14 @@
       <c r="I4" s="14">
         <v>1800</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
@@ -1329,7 +1462,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
@@ -1355,7 +1488,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>27</v>
       </c>
@@ -1381,7 +1514,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
@@ -1407,7 +1540,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
@@ -1433,7 +1566,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
@@ -1459,7 +1592,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
@@ -1485,7 +1618,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
@@ -1511,7 +1644,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>39</v>
       </c>
@@ -1537,7 +1670,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>41</v>
       </c>
@@ -1563,7 +1696,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
@@ -1589,7 +1722,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
@@ -1830,9 +1963,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
